--- a/01_Documentacion/Programa_aud_interno/PROGRAMA_AUDI_INTERNA_G8.xlsx
+++ b/01_Documentacion/Programa_aud_interno/PROGRAMA_AUDI_INTERNA_G8.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>Fecha de Emisión:</t>
   </si>
@@ -382,8 +382,8 @@
     <t xml:space="preserve">FECHA DE ELABORACIÓN: </t>
   </si>
   <si>
-    <t>Plan para la Auditoria PACAL-INST-2023
-DCCO - ESPE MATRIZ PAO 202350</t>
+    <t>Plan para la Auditoria
+DCCO - ESPE MATRIZ PAO 202450</t>
   </si>
   <si>
     <t xml:space="preserve">Versión: </t>
@@ -429,80 +429,29 @@
     <t>ISO-ICE-IEEE-29119-5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Identifying Keywords:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> Is a pivotal task in Keyword-Driven Testing as the contents, granularity and structure of the keywords can impact the way keyword test cases are defined. It is important to name keywords in a way that appears natural to the people who will be working with them.</t>
-    </r>
+    <t>Identificación de palabras clave: es una tarea fundamental en las pruebas basadas en palabras clave, ya que el contenido, la granularidad y la estructura de las palabras clave pueden afectar la forma en que se definen los casos de prueba de palabras clave. Es importante nombrar las palabras clave de una manera que parezca natural para las personas que trabajarán con ellas..</t>
   </si>
   <si>
-    <t>Aymé Escobar</t>
-  </si>
-  <si>
-    <t>Sebastián Paucar</t>
+    <t>Luis Burbano</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Composing test cases:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> Keyword test cases can be created from previously defined keywords and documented using tables or databases. These cases typically use keywords from a single layer, allowing different testers to design different layers.</t>
-    </r>
+    <t>La creación de casos de prueba basados en palabras clave se realiza utilizando palabras clave previamente definidas, las cuales pueden documentarse en tablas o bases de datos. Por lo general, estos casos emplean palabras clave de una sola capa, lo que facilita que diferentes evaluadores trabajen en el diseño de distintas capas de manera independiente.</t>
   </si>
   <si>
-    <t>Angelo Yanacallo</t>
+    <t>Bryan Yaguarshungo</t>
   </si>
   <si>
     <t>6.3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>Keywords and data-driven testing:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial Narrow"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Keyword testing with separate parameters allows reusing action sequences with different data, stored in tables or databases, thus creating new tests</t>
-    </r>
+    <t xml:space="preserve">
+Las pruebas que combinan el uso de datos y palabras clave, con parámetros separados, posibilitan la reutilización de secuencias de acciones utilizando diferentes conjuntos de datos. Estos datos, almacenados en tablas o bases de datos, permiten generar nuevas pruebas de manera eficiente.</t>
   </si>
   <si>
-    <t>Ricardo Rivadeneira</t>
+    <t>Santiago Quishpe</t>
   </si>
   <si>
     <t>6.4</t>
@@ -1123,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1410,7 +1359,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="36" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="37" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="31" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1426,7 +1375,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="32" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="32" fillId="3" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1451,19 +1400,22 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="26" fillId="3" fontId="33" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="26" fillId="3" fontId="33" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="37" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30693,7 +30645,7 @@
         <v>60</v>
       </c>
       <c r="E11" s="125">
-        <v>45131.0</v>
+        <v>45278.0</v>
       </c>
       <c r="F11" s="121"/>
     </row>
@@ -30750,7 +30702,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="136">
-        <v>45483.0</v>
+        <v>45642.0</v>
       </c>
       <c r="C15" s="137" t="s">
         <v>71</v>
@@ -30762,19 +30714,19 @@
         <v>73</v>
       </c>
       <c r="F15" s="139" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="140" t="s">
+      <c r="H15" s="141" t="s">
         <v>75</v>
-      </c>
-      <c r="H15" s="139" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" ht="141.75" customHeight="1">
       <c r="A16" s="45"/>
       <c r="B16" s="136">
-        <v>45484.0</v>
+        <v>45663.0</v>
       </c>
       <c r="C16" s="137" t="s">
         <v>71</v>
@@ -30783,22 +30735,22 @@
         <v>72</v>
       </c>
       <c r="E16" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="G16" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="142" t="s">
         <v>78</v>
-      </c>
-      <c r="G16" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="141" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" ht="165.0" customHeight="1">
       <c r="A17" s="53"/>
       <c r="B17" s="136">
-        <v>45485.0</v>
+        <v>45639.0</v>
       </c>
       <c r="C17" s="137" t="s">
         <v>71</v>
@@ -30807,26 +30759,26 @@
         <v>72</v>
       </c>
       <c r="E17" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="139" t="s">
+      <c r="G17" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="142" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="4">
